--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lgi3-Adam22.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lgi3-Adam22.xlsx
@@ -546,10 +546,10 @@
         <v>0.134456</v>
       </c>
       <c r="I2">
-        <v>0.02684490863954198</v>
+        <v>0.02406616871877758</v>
       </c>
       <c r="J2">
-        <v>0.02684490863954198</v>
+        <v>0.02406616871877757</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.357976666666667</v>
+        <v>0.9949089999999999</v>
       </c>
       <c r="N2">
-        <v>7.07393</v>
+        <v>2.984727</v>
       </c>
       <c r="O2">
-        <v>0.4138076229453391</v>
+        <v>0.1476822527339178</v>
       </c>
       <c r="P2">
-        <v>0.4138076229453391</v>
+        <v>0.1476822527339178</v>
       </c>
       <c r="Q2">
-        <v>0.1056813702311111</v>
+        <v>0.04459049483466666</v>
       </c>
       <c r="R2">
-        <v>0.9511323320799999</v>
+        <v>0.401314453512</v>
       </c>
       <c r="S2">
-        <v>0.01110862783231366</v>
+        <v>0.003554146011063617</v>
       </c>
       <c r="T2">
-        <v>0.01110862783231366</v>
+        <v>0.003554146011063616</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.134456</v>
       </c>
       <c r="I3">
-        <v>0.02684490863954198</v>
+        <v>0.02406616871877758</v>
       </c>
       <c r="J3">
-        <v>0.02684490863954198</v>
+        <v>0.02406616871877757</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>4.959485</v>
       </c>
       <c r="O3">
-        <v>0.2901177561670903</v>
+        <v>0.2453919293791607</v>
       </c>
       <c r="P3">
-        <v>0.2901177561670903</v>
+        <v>0.2453919293791607</v>
       </c>
       <c r="Q3">
         <v>0.07409250168444444</v>
@@ -638,10 +638,10 @@
         <v>0.66683251516</v>
       </c>
       <c r="S3">
-        <v>0.007788184659014457</v>
+        <v>0.005905643574665235</v>
       </c>
       <c r="T3">
-        <v>0.007788184659014457</v>
+        <v>0.005905643574665234</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.134456</v>
       </c>
       <c r="I4">
-        <v>0.02684490863954198</v>
+        <v>0.02406616871877758</v>
       </c>
       <c r="J4">
-        <v>0.02684490863954198</v>
+        <v>0.02406616871877757</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.33798</v>
+        <v>1.748891</v>
       </c>
       <c r="N4">
-        <v>1.01394</v>
+        <v>5.246673</v>
       </c>
       <c r="O4">
-        <v>0.05931301288098655</v>
+        <v>0.2596017954064887</v>
       </c>
       <c r="P4">
-        <v>0.05931301288098655</v>
+        <v>0.2596017954064887</v>
       </c>
       <c r="Q4">
-        <v>0.01514781296</v>
+        <v>0.07838296276533334</v>
       </c>
       <c r="R4">
-        <v>0.13633031664</v>
+        <v>0.705446664888</v>
       </c>
       <c r="S4">
-        <v>0.00159225241192606</v>
+        <v>0.006247620607950135</v>
       </c>
       <c r="T4">
-        <v>0.001592252411926061</v>
+        <v>0.006247620607950134</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.134456</v>
       </c>
       <c r="I5">
-        <v>0.02684490863954198</v>
+        <v>0.02406616871877758</v>
       </c>
       <c r="J5">
-        <v>0.02684490863954198</v>
+        <v>0.02406616871877757</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8267596666666667</v>
+        <v>0.7268083333333334</v>
       </c>
       <c r="N5">
-        <v>2.480279</v>
+        <v>2.180425</v>
       </c>
       <c r="O5">
-        <v>0.145090262022842</v>
+        <v>0.1078859392893731</v>
       </c>
       <c r="P5">
-        <v>0.145090262022842</v>
+        <v>0.1078859392893731</v>
       </c>
       <c r="Q5">
-        <v>0.03705426591377778</v>
+        <v>0.03257458042222222</v>
       </c>
       <c r="R5">
-        <v>0.333488393224</v>
+        <v>0.2931712238</v>
       </c>
       <c r="S5">
-        <v>0.003894934828490401</v>
+        <v>0.002596401217321848</v>
       </c>
       <c r="T5">
-        <v>0.003894934828490401</v>
+        <v>0.002596401217321848</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>0.134456</v>
       </c>
       <c r="I6">
-        <v>0.02684490863954198</v>
+        <v>0.02406616871877758</v>
       </c>
       <c r="J6">
-        <v>0.02684490863954198</v>
+        <v>0.02406616871877757</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5223656666666666</v>
+        <v>1.613051666666667</v>
       </c>
       <c r="N6">
-        <v>1.567097</v>
+        <v>4.839155</v>
       </c>
       <c r="O6">
-        <v>0.09167134598374201</v>
+        <v>0.2394380831910597</v>
       </c>
       <c r="P6">
-        <v>0.09167134598374201</v>
+        <v>0.2394380831910597</v>
       </c>
       <c r="Q6">
-        <v>0.02341173269244444</v>
+        <v>0.07229482496444443</v>
       </c>
       <c r="R6">
-        <v>0.210705594232</v>
+        <v>0.65065342468</v>
       </c>
       <c r="S6">
-        <v>0.002460908907797398</v>
+        <v>0.005762357307776743</v>
       </c>
       <c r="T6">
-        <v>0.002460908907797398</v>
+        <v>0.005762357307776743</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>4.819827999999999</v>
       </c>
       <c r="I7">
-        <v>0.9623061991901166</v>
+        <v>0.8626970447097064</v>
       </c>
       <c r="J7">
-        <v>0.9623061991901166</v>
+        <v>0.8626970447097063</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.357976666666667</v>
+        <v>0.9949089999999999</v>
       </c>
       <c r="N7">
-        <v>7.07393</v>
+        <v>2.984727</v>
       </c>
       <c r="O7">
-        <v>0.4138076229453391</v>
+        <v>0.1476822527339178</v>
       </c>
       <c r="P7">
-        <v>0.4138076229453391</v>
+        <v>0.1476822527339178</v>
       </c>
       <c r="Q7">
-        <v>3.788347320448888</v>
+        <v>1.598430085217333</v>
       </c>
       <c r="R7">
-        <v>34.09512588403999</v>
+        <v>14.385870766956</v>
       </c>
       <c r="S7">
-        <v>0.3982096408324262</v>
+        <v>0.1274050429896229</v>
       </c>
       <c r="T7">
-        <v>0.3982096408324262</v>
+        <v>0.1274050429896228</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>4.819827999999999</v>
       </c>
       <c r="I8">
-        <v>0.9623061991901166</v>
+        <v>0.8626970447097064</v>
       </c>
       <c r="J8">
-        <v>0.9623061991901166</v>
+        <v>0.8626970447097063</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>4.959485</v>
       </c>
       <c r="O8">
-        <v>0.2901177561670903</v>
+        <v>0.2453919293791607</v>
       </c>
       <c r="P8">
-        <v>0.2901177561670903</v>
+        <v>0.2453919293791607</v>
       </c>
       <c r="Q8">
         <v>2.655984963175555</v>
@@ -948,10 +948,10 @@
         <v>23.90386466858</v>
       </c>
       <c r="S8">
-        <v>0.2791821152547177</v>
+        <v>0.211698892271015</v>
       </c>
       <c r="T8">
-        <v>0.2791821152547177</v>
+        <v>0.2116988922710149</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>4.819827999999999</v>
       </c>
       <c r="I9">
-        <v>0.9623061991901166</v>
+        <v>0.8626970447097064</v>
       </c>
       <c r="J9">
-        <v>0.9623061991901166</v>
+        <v>0.8626970447097063</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.33798</v>
+        <v>1.748891</v>
       </c>
       <c r="N9">
-        <v>1.01394</v>
+        <v>5.246673</v>
       </c>
       <c r="O9">
-        <v>0.05931301288098655</v>
+        <v>0.2596017954064887</v>
       </c>
       <c r="P9">
-        <v>0.05931301288098655</v>
+        <v>0.2596017954064887</v>
       </c>
       <c r="Q9">
-        <v>0.54300182248</v>
+        <v>2.809784603582667</v>
       </c>
       <c r="R9">
-        <v>4.88701640232</v>
+        <v>25.288061432244</v>
       </c>
       <c r="S9">
-        <v>0.05707727998801659</v>
+        <v>0.2239577016985116</v>
       </c>
       <c r="T9">
-        <v>0.0570772799880166</v>
+        <v>0.2239577016985116</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>4.819827999999999</v>
       </c>
       <c r="I10">
-        <v>0.9623061991901166</v>
+        <v>0.8626970447097064</v>
       </c>
       <c r="J10">
-        <v>0.9623061991901166</v>
+        <v>0.8626970447097063</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8267596666666667</v>
+        <v>0.7268083333333334</v>
       </c>
       <c r="N10">
-        <v>2.480279</v>
+        <v>2.180425</v>
       </c>
       <c r="O10">
-        <v>0.145090262022842</v>
+        <v>0.1078859392893731</v>
       </c>
       <c r="P10">
-        <v>0.145090262022842</v>
+        <v>0.1078859392893731</v>
       </c>
       <c r="Q10">
-        <v>1.328279796890222</v>
+        <v>1.167697051877778</v>
       </c>
       <c r="R10">
-        <v>11.954518172012</v>
+        <v>10.5092734669</v>
       </c>
       <c r="S10">
-        <v>0.1396212585866992</v>
+        <v>0.09307288099067298</v>
       </c>
       <c r="T10">
-        <v>0.1396212585866992</v>
+        <v>0.09307288099067297</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>4.819827999999999</v>
       </c>
       <c r="I11">
-        <v>0.9623061991901166</v>
+        <v>0.8626970447097064</v>
       </c>
       <c r="J11">
-        <v>0.9623061991901166</v>
+        <v>0.8626970447097063</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.5223656666666666</v>
+        <v>1.613051666666667</v>
       </c>
       <c r="N11">
-        <v>1.567097</v>
+        <v>4.839155</v>
       </c>
       <c r="O11">
-        <v>0.09167134598374201</v>
+        <v>0.2394380831910597</v>
       </c>
       <c r="P11">
-        <v>0.09167134598374201</v>
+        <v>0.2394380831910597</v>
       </c>
       <c r="Q11">
-        <v>0.8392375554795554</v>
+        <v>2.591543862815555</v>
       </c>
       <c r="R11">
-        <v>7.553137999315998</v>
+        <v>23.32389476534</v>
       </c>
       <c r="S11">
-        <v>0.08821590452825694</v>
+        <v>0.206562526759884</v>
       </c>
       <c r="T11">
-        <v>0.08821590452825694</v>
+        <v>0.206562526759884</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.01811266666666667</v>
+        <v>0.210882</v>
       </c>
       <c r="H12">
-        <v>0.054338</v>
+        <v>0.6326459999999999</v>
       </c>
       <c r="I12">
-        <v>0.01084889217034147</v>
+        <v>0.113236786571516</v>
       </c>
       <c r="J12">
-        <v>0.01084889217034147</v>
+        <v>0.113236786571516</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.357976666666667</v>
+        <v>0.9949089999999999</v>
       </c>
       <c r="N12">
-        <v>7.07393</v>
+        <v>2.984727</v>
       </c>
       <c r="O12">
-        <v>0.4138076229453391</v>
+        <v>0.1476822527339178</v>
       </c>
       <c r="P12">
-        <v>0.4138076229453391</v>
+        <v>0.1476822527339178</v>
       </c>
       <c r="Q12">
-        <v>0.04270924537111111</v>
+        <v>0.209808399738</v>
       </c>
       <c r="R12">
-        <v>0.3843832083399999</v>
+        <v>1.888275597642</v>
       </c>
       <c r="S12">
-        <v>0.004489354280599303</v>
+        <v>0.01672306373323134</v>
       </c>
       <c r="T12">
-        <v>0.004489354280599303</v>
+        <v>0.01672306373323134</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.01811266666666667</v>
+        <v>0.210882</v>
       </c>
       <c r="H13">
-        <v>0.054338</v>
+        <v>0.6326459999999999</v>
       </c>
       <c r="I13">
-        <v>0.01084889217034147</v>
+        <v>0.113236786571516</v>
       </c>
       <c r="J13">
-        <v>0.01084889217034147</v>
+        <v>0.113236786571516</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>4.959485</v>
       </c>
       <c r="O13">
-        <v>0.2901177561670903</v>
+        <v>0.2453919293791607</v>
       </c>
       <c r="P13">
-        <v>0.2901177561670903</v>
+        <v>0.2453919293791607</v>
       </c>
       <c r="Q13">
-        <v>0.02994316621444444</v>
+        <v>0.34862203859</v>
       </c>
       <c r="R13">
-        <v>0.26948849593</v>
+        <v>3.13759834731</v>
       </c>
       <c r="S13">
-        <v>0.003147456253358181</v>
+        <v>0.02778739353348056</v>
       </c>
       <c r="T13">
-        <v>0.003147456253358181</v>
+        <v>0.02778739353348055</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.01811266666666667</v>
+        <v>0.210882</v>
       </c>
       <c r="H14">
-        <v>0.054338</v>
+        <v>0.6326459999999999</v>
       </c>
       <c r="I14">
-        <v>0.01084889217034147</v>
+        <v>0.113236786571516</v>
       </c>
       <c r="J14">
-        <v>0.01084889217034147</v>
+        <v>0.113236786571516</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.33798</v>
+        <v>1.748891</v>
       </c>
       <c r="N14">
-        <v>1.01394</v>
+        <v>5.246673</v>
       </c>
       <c r="O14">
-        <v>0.05931301288098655</v>
+        <v>0.2596017954064887</v>
       </c>
       <c r="P14">
-        <v>0.05931301288098655</v>
+        <v>0.2596017954064887</v>
       </c>
       <c r="Q14">
-        <v>0.00612171908</v>
+        <v>0.368809631862</v>
       </c>
       <c r="R14">
-        <v>0.05509547172</v>
+        <v>3.319286686758</v>
       </c>
       <c r="S14">
-        <v>0.0006434804810438974</v>
+        <v>0.02939647310002693</v>
       </c>
       <c r="T14">
-        <v>0.0006434804810438975</v>
+        <v>0.02939647310002693</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.01811266666666667</v>
+        <v>0.210882</v>
       </c>
       <c r="H15">
-        <v>0.054338</v>
+        <v>0.6326459999999999</v>
       </c>
       <c r="I15">
-        <v>0.01084889217034147</v>
+        <v>0.113236786571516</v>
       </c>
       <c r="J15">
-        <v>0.01084889217034147</v>
+        <v>0.113236786571516</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.8267596666666667</v>
+        <v>0.7268083333333334</v>
       </c>
       <c r="N15">
-        <v>2.480279</v>
+        <v>2.180425</v>
       </c>
       <c r="O15">
-        <v>0.145090262022842</v>
+        <v>0.1078859392893731</v>
       </c>
       <c r="P15">
-        <v>0.145090262022842</v>
+        <v>0.1078859392893731</v>
       </c>
       <c r="Q15">
-        <v>0.01497482225577778</v>
+        <v>0.15327079495</v>
       </c>
       <c r="R15">
-        <v>0.134773400302</v>
+        <v>1.37943715455</v>
       </c>
       <c r="S15">
-        <v>0.001574068607652402</v>
+        <v>0.01221665708137828</v>
       </c>
       <c r="T15">
-        <v>0.001574068607652402</v>
+        <v>0.01221665708137828</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.01811266666666667</v>
+        <v>0.210882</v>
       </c>
       <c r="H16">
-        <v>0.054338</v>
+        <v>0.6326459999999999</v>
       </c>
       <c r="I16">
-        <v>0.01084889217034147</v>
+        <v>0.113236786571516</v>
       </c>
       <c r="J16">
-        <v>0.01084889217034147</v>
+        <v>0.113236786571516</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.5223656666666666</v>
+        <v>1.613051666666667</v>
       </c>
       <c r="N16">
-        <v>1.567097</v>
+        <v>4.839155</v>
       </c>
       <c r="O16">
-        <v>0.09167134598374201</v>
+        <v>0.2394380831910597</v>
       </c>
       <c r="P16">
-        <v>0.09167134598374201</v>
+        <v>0.2394380831910597</v>
       </c>
       <c r="Q16">
-        <v>0.009461435198444444</v>
+        <v>0.3401635615699999</v>
       </c>
       <c r="R16">
-        <v>0.085152916786</v>
+        <v>3.06147205413</v>
       </c>
       <c r="S16">
-        <v>0.0009945325476876821</v>
+        <v>0.02711319912339892</v>
       </c>
       <c r="T16">
-        <v>0.0009945325476876821</v>
+        <v>0.02711319912339892</v>
       </c>
     </row>
   </sheetData>
